--- a/Calculate/TugasAkhir.xlsx
+++ b/Calculate/TugasAkhir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TUGAS AKHIR Ver\TugasAkhir_TelU\Calculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224C283C-1ABC-45C9-A4FC-944170E35B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D127C5E-5BD8-486A-B30D-93BE9DF63F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{DDDC41D4-5E85-4C2D-8797-38F690069BD3}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="75">
   <si>
     <t>Range Resolution</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>TC</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>d0</t>
@@ -333,16 +330,36 @@
   <si>
     <t>fd</t>
   </si>
+  <si>
+    <t>MHz/µs</t>
+  </si>
+  <si>
+    <r>
+      <t>m/µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0E+00"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -479,8 +496,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,7 +928,7 @@
   <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,8 +983,8 @@
         <v>8</v>
       </c>
       <c r="F2" s="9">
-        <f>3*10^9</f>
-        <v>3000000000</v>
+        <f>3.1*10^9</f>
+        <v>3100000000</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -987,26 +1004,26 @@
       </c>
       <c r="L2" s="30">
         <f>F3/(4*C9)</f>
-        <v>1.6666666666666668E-3</v>
+        <v>1.6129032258064516E-3</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="31">
         <f>L2*1000000</f>
-        <v>1666.6666666666667</v>
+        <v>1612.9032258064517</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <f>(I2*F6)/(2*I4)</f>
-        <v>150000.00000000003</v>
+        <v>145161.29032258064</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1016,7 +1033,7 @@
       </c>
       <c r="F3" s="2">
         <f>I2/F2</f>
-        <v>0.1</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -1026,7 +1043,7 @@
       </c>
       <c r="I3" s="3">
         <f>F5/L2</f>
-        <v>29999999999.999996</v>
+        <v>31000000000</v>
       </c>
       <c r="J3" t="s">
         <v>34</v>
@@ -1036,26 +1053,26 @@
       </c>
       <c r="L3" s="2">
         <f>F3/(2*C8)</f>
-        <v>0.05</v>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="31">
         <f>L3*1000</f>
-        <v>50</v>
+        <v>48.387096774193544</v>
       </c>
       <c r="O3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="33">
         <f>C3/1000</f>
-        <v>150.00000000000003</v>
+        <v>145.16129032258064</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -1074,7 +1091,7 @@
       </c>
       <c r="I4" s="2">
         <f>F4/L2</f>
-        <v>29999.999999999996</v>
+        <v>31000</v>
       </c>
       <c r="J4" t="s">
         <v>35</v>
@@ -1101,12 +1118,12 @@
       <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f>F5/N2</f>
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
@@ -1118,6 +1135,16 @@
       </c>
       <c r="G6" t="s">
         <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2">
+        <f>F4/N2</f>
+        <v>3.1E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
@@ -1181,7 +1208,7 @@
       </c>
       <c r="C14" s="2">
         <f>C4</f>
-        <v>150.00000000000003</v>
+        <v>145.16129032258064</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>38</v>
@@ -1229,7 +1256,7 @@
       </c>
       <c r="C18" s="3">
         <f>F2</f>
-        <v>3000000000</v>
+        <v>3100000000</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -2597,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD45ECA-86A7-4244-B689-EE1AF155CB9A}">
-  <dimension ref="B1:R17"/>
+  <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2612,15 +2639,15 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>57</v>
       </c>
@@ -2631,22 +2658,22 @@
         <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2">
         <f>'Deciding Factor'!F3</f>
-        <v>0.1</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F4" s="2" t="s">
         <v>60</v>
       </c>
@@ -2657,48 +2684,55 @@
       <c r="H4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F5" s="33" t="s">
+      <c r="I4" s="2">
+        <f>G4/10^6</f>
+        <v>300</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="F5" s="32" t="s">
         <v>61</v>
       </c>
       <c r="G5" s="2">
         <f>'Deciding Factor'!I3</f>
-        <v>29999999999.999996</v>
+        <v>31000000000</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="2">
         <f>'Deciding Factor'!I5</f>
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="2">
         <f>'Deciding Factor'!L2</f>
-        <v>1.6666666666666668E-3</v>
+        <v>1.6129032258064516E-3</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="31">
         <f>G6*1000000</f>
-        <v>1666.6666666666667</v>
+        <v>1612.9032258064517</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2">
         <f>'Deciding Factor'!F5</f>
@@ -2708,27 +2742,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2">
-        <v>15</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N10" s="2">
         <v>3</v>
@@ -2745,73 +2782,82 @@
       <c r="R10" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="32">
-        <f>(C10*2*G7)/(G4*I6)</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="D11" s="32">
-        <f>(D10*2*G7)/(G4*I6)</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="E11" s="32">
-        <f>(E10*2*G7)/(G4*I6)</f>
-        <v>1.8E-3</v>
-      </c>
-      <c r="F11" s="32">
-        <f>(F10*2*G7)/(G4*I6)</f>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="G11" s="7">
-        <f>(G10*2*G7)/(G4*I6)</f>
-        <v>3.0000000000000001E-3</v>
+      <c r="C11" s="31">
+        <f>(C10*2*G7)/(I4*I6)</f>
+        <v>1033.3333333333333</v>
+      </c>
+      <c r="D11" s="31">
+        <f>(D10*2*G7)/(I4*I6)</f>
+        <v>2066.6666666666665</v>
+      </c>
+      <c r="E11" s="31">
+        <f>(E10*2*G7)/(I4*I6)</f>
+        <v>3100</v>
+      </c>
+      <c r="F11" s="31">
+        <f>(F10*2*G7)/(I4*I6)</f>
+        <v>4133.333333333333</v>
+      </c>
+      <c r="G11" s="31">
+        <f>(G10*2*G7)/(I4*I6)</f>
+        <v>5166.6666666666661</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N11" s="2">
         <f>(2*N10)/G3</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O11" s="2">
         <f>(2*O10)/G3</f>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P11" s="2">
         <f>(2*P10)/G3</f>
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="2">
         <f>(2*Q10)/G3</f>
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="R11" s="2">
         <f>(2*R10)/G3</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="S11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -2819,24 +2865,24 @@
         <v>58</v>
       </c>
       <c r="C17" s="2">
-        <f>(C16*2*I5)/G4</f>
-        <v>5.9999999999999995E-4</v>
+        <f>(C16*2*I5)/I4</f>
+        <v>1033.3333333333333</v>
       </c>
       <c r="D17" s="2">
-        <f>(D16*2*I5)/G4</f>
-        <v>1.1999999999999999E-3</v>
+        <f>(D16*2*I5)/I4</f>
+        <v>2066.6666666666665</v>
       </c>
       <c r="E17" s="2">
-        <f>(E16*2*I5)/G4</f>
-        <v>1.8E-3</v>
+        <f>(E16*2*I5)/I4</f>
+        <v>3100</v>
       </c>
       <c r="F17" s="2">
-        <f>(F16*2*I5)/G4</f>
-        <v>2.3999999999999998E-3</v>
+        <f>(F16*2*I5)/I4</f>
+        <v>4133.333333333333</v>
       </c>
       <c r="G17" s="2">
-        <f>(G16*2*I5)/G4</f>
-        <v>3.0000000000000001E-3</v>
+        <f>(G16*2*I5)/I4</f>
+        <v>5166.666666666667</v>
       </c>
     </row>
   </sheetData>
